--- a/Webmail.xlsx
+++ b/Webmail.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D331E6B-93E7-4CE4-A135-49B0174DE53C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="98">
   <si>
     <t>USECASE</t>
   </si>
@@ -131,9 +132,6 @@
   </si>
   <si>
     <t>Người dùng hủy gửi message trong khi đang soạn message =&gt; Lưu message vào thư mục Drafts</t>
-  </si>
-  <si>
-    <t>Chặn hoặc bỏ chặn tài khoản một người dùng =&gt; Xác thực admin</t>
   </si>
   <si>
     <t>Lấy ra danh sách các người dùng =&gt; Xác thực admin</t>
@@ -203,12 +201,6 @@
     </r>
   </si>
   <si>
-    <t>mark read or unread</t>
-  </si>
-  <si>
-    <t>Đánh dấu đã đọc một message (nếu chưa đọc) hoặc đã đọc một message (nếu đã đọc)</t>
-  </si>
-  <si>
     <t>INPUT</t>
   </si>
   <si>
@@ -455,11 +447,38 @@
     data: MessageModel
 }</t>
   </si>
+  <si>
+    <t>unblock user</t>
+  </si>
+  <si>
+    <t>Chặn tài khoản một người dùng =&gt; Xác thực admin</t>
+  </si>
+  <si>
+    <t>Bỏ chặn tài khoản một người dùng =&gt; Xác thực admin</t>
+  </si>
+  <si>
+    <t>/users/unblock</t>
+  </si>
+  <si>
+    <t>mark read</t>
+  </si>
+  <si>
+    <t>mark unread</t>
+  </si>
+  <si>
+    <t>Đánh dấu đã đọc một message</t>
+  </si>
+  <si>
+    <t>Đánh dấu chưa đọc một message</t>
+  </si>
+  <si>
+    <t>/messages/unread</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -652,6 +671,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -687,6 +723,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -862,11 +915,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -893,10 +946,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="132" x14ac:dyDescent="0.25">
@@ -913,10 +966,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="132" x14ac:dyDescent="0.25">
@@ -933,10 +986,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="181.5" x14ac:dyDescent="0.25">
@@ -953,10 +1006,10 @@
         <v>14</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="181.5" x14ac:dyDescent="0.25">
@@ -973,18 +1026,18 @@
         <v>7</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>17</v>
@@ -993,10 +1046,10 @@
         <v>14</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
@@ -1004,19 +1057,39 @@
         <v>18</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1032,10 +1105,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="B3" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1063,30 +1136,30 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="231" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
@@ -1094,19 +1167,19 @@
         <v>35</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
@@ -1117,36 +1190,36 @@
         <v>31</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1165,7 +1238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -1197,10 +1270,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
@@ -1217,10 +1290,10 @@
         <v>14</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
@@ -1237,10 +1310,10 @@
         <v>19</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
@@ -1248,7 +1321,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>34</v>
@@ -1257,30 +1330,30 @@
         <v>27</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1290,11 +1363,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1322,10 +1395,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="148.5" x14ac:dyDescent="0.25">
@@ -1333,7 +1406,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>21</v>
@@ -1342,10 +1415,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="198" x14ac:dyDescent="0.25">
@@ -1353,7 +1426,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
@@ -1362,10 +1435,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="132" x14ac:dyDescent="0.25">
@@ -1376,16 +1449,16 @@
         <v>37</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
@@ -1393,19 +1466,19 @@
         <v>25</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
@@ -1413,59 +1486,79 @@
         <v>26</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">

--- a/Webmail.xlsx
+++ b/Webmail.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D331E6B-93E7-4CE4-A135-49B0174DE53C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E53393D-DA24-4DB9-AA7C-E810B70B809A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -303,11 +303,6 @@
   </si>
   <si>
     <t>{
-    folderId: ObjectId
-}</t>
-  </si>
-  <si>
-    <t>{
     folderName: String
 }</t>
   </si>
@@ -354,33 +349,56 @@
 }</t>
   </si>
   <si>
-    <t>{
-    folderName: String,
-    convId: ObjectId
-}</t>
-  </si>
-  <si>
-    <t>{
-    convIds: [ObjectId],
-    currentFolderId: ObjectId,
-    trashFolderId: ObjectId
-}</t>
-  </si>
-  <si>
-    <t>{
-    convIds: [ObjectId],
-    trashFolderId: ObjectId
-}</t>
-  </si>
-  <si>
-    <t>{
-    convIds: [ObjectId],
-    srcFolderId: ObjectId,
-    desFolderId: ObjectId
-}</t>
-  </si>
-  <si>
-    <t>{
+    <t>Người dùng gửi message cho người dùng khác =&gt; Tạo ra một conversation mới chứa message của người gửi =&gt; Lưu conversation vào thư mục Sent của người gửi và thư mục Inbox của người nhận =&gt; Thiết lập thuộc tính visibleBy của message chứa tham chiếu đến người gửi và tất cả người nhận</t>
+  </si>
+  <si>
+    <t>{
+    error: false,
+    message: String,
+    data: MessageModel
+}</t>
+  </si>
+  <si>
+    <t>unblock user</t>
+  </si>
+  <si>
+    <t>Chặn tài khoản một người dùng =&gt; Xác thực admin</t>
+  </si>
+  <si>
+    <t>Bỏ chặn tài khoản một người dùng =&gt; Xác thực admin</t>
+  </si>
+  <si>
+    <t>/users/unblock</t>
+  </si>
+  <si>
+    <t>mark read</t>
+  </si>
+  <si>
+    <t>mark unread</t>
+  </si>
+  <si>
+    <t>Đánh dấu đã đọc một message</t>
+  </si>
+  <si>
+    <t>Đánh dấu chưa đọc một message</t>
+  </si>
+  <si>
+    <t>/messages/unread</t>
+  </si>
+  <si>
+    <t>{
+    title: String,
+    content: String,
+    receiverEmails: [String],
+    ccReceiverEmails: [String],
+    bccReceiverEmails: [String],
+    sentFolderId: String,
+    files: [String]
+}</t>
+  </si>
+  <si>
+    <t>{
+    draftsFolderId: String,
     title: String,
     content: String,
     receiverEmails: [String],
@@ -391,88 +409,70 @@
   </si>
   <si>
     <t>{
+    msgId: String,
+    trashFolderId: String,
+    currentFolderId: String
+}</t>
+  </si>
+  <si>
+    <t>{
+    msgId: String,
+    trashFolderId: String
+}</t>
+  </si>
+  <si>
+    <t>{
+    msgId: String
+}</t>
+  </si>
+  <si>
+    <t>{
+    msgId: String,
+    convId: String
+}</t>
+  </si>
+  <si>
+    <t>{
+    convIds: [String],
+    currentFolderId: String,
+    trashFolderId: String
+}</t>
+  </si>
+  <si>
+    <t>{
+    convIds: [String],
+    trashFolderId: String
+}</t>
+  </si>
+  <si>
+    <t>{
+    convIds: [String],
+    srcFolderId: String,
+    desFolderId: String
+}</t>
+  </si>
+  <si>
+    <t>{
+    folderId: String
+}</t>
+  </si>
+  <si>
+    <t>{
+    isTrashFolder: Boolean,
+    convId: String
+}</t>
+  </si>
+  <si>
+    <t>{
     title: String,
     content: String,
     receiverEmails: [String],
     ccReceiverEmails: [String],
     bccReceiverEmails: [String],
-    sentFolderId: ObjectId,
-    convId: ObjectId,
-    msgId: ObjectId,
-    visibleBy: [String]
+    convId: String,
+    msgId: String,
     files: [String]
 }</t>
-  </si>
-  <si>
-    <t>{
-    title: String,
-    content: String,
-    receiverEmails: [String],
-    ccReceiverEmails: [String],
-    bccReceiverEmails: [String],
-    sentFolderId: ObjectId,
-    files: [String]
-}</t>
-  </si>
-  <si>
-    <t>Người dùng gửi message cho người dùng khác =&gt; Tạo ra một conversation mới chứa message của người gửi =&gt; Lưu conversation vào thư mục Sent của người gửi và thư mục Inbox của người nhận =&gt; Thiết lập thuộc tính visibleBy của message chứa tham chiếu đến người gửi và tất cả người nhận</t>
-  </si>
-  <si>
-    <t>{
-    msgId: ObjectId,
-    trashFolderId: ObjectId
-}</t>
-  </si>
-  <si>
-    <t>{
-    msgId: ObjectId,
-    currentFolderId: ObjectId
-}</t>
-  </si>
-  <si>
-    <t>{
-    msgId: ObjectId,
-}</t>
-  </si>
-  <si>
-    <t>{
-    msgId: ObjectId,
-    convId: ObjectId
-}</t>
-  </si>
-  <si>
-    <t>{
-    error: false,
-    message: String,
-    data: MessageModel
-}</t>
-  </si>
-  <si>
-    <t>unblock user</t>
-  </si>
-  <si>
-    <t>Chặn tài khoản một người dùng =&gt; Xác thực admin</t>
-  </si>
-  <si>
-    <t>Bỏ chặn tài khoản một người dùng =&gt; Xác thực admin</t>
-  </si>
-  <si>
-    <t>/users/unblock</t>
-  </si>
-  <si>
-    <t>mark read</t>
-  </si>
-  <si>
-    <t>mark unread</t>
-  </si>
-  <si>
-    <t>Đánh dấu đã đọc một message</t>
-  </si>
-  <si>
-    <t>Đánh dấu chưa đọc một message</t>
-  </si>
-  <si>
-    <t>/messages/unread</t>
   </si>
 </sst>
 </file>
@@ -918,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1057,7 +1057,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>47</v>
@@ -1074,13 +1074,13 @@
     </row>
     <row r="8" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>19</v>
@@ -1108,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1144,22 +1144,22 @@
     </row>
     <row r="2" spans="1:6" ht="231" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
@@ -1167,19 +1167,19 @@
         <v>35</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
@@ -1196,7 +1196,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>66</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>66</v>
@@ -1241,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1290,10 +1290,10 @@
         <v>14</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
@@ -1310,7 +1310,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>66</v>
@@ -1330,7 +1330,7 @@
         <v>27</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>66</v>
@@ -1350,7 +1350,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>66</v>
@@ -1366,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1406,7 +1406,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>21</v>
@@ -1415,13 +1415,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="198" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>22</v>
       </c>
@@ -1435,13 +1435,13 @@
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="132" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>24</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>66</v>
@@ -1475,7 +1475,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>66</v>
@@ -1495,7 +1495,7 @@
         <v>27</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>66</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="7" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>50</v>
@@ -1515,7 +1515,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>66</v>
@@ -1523,19 +1523,19 @@
     </row>
     <row r="8" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>66</v>
@@ -1555,7 +1555,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>66</v>

--- a/Webmail.xlsx
+++ b/Webmail.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E53393D-DA24-4DB9-AA7C-E810B70B809A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE14B80-E28E-4955-B4D7-B273306AD5B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="101">
   <si>
     <t>USECASE</t>
   </si>
@@ -144,9 +144,6 @@
   </si>
   <si>
     <t xml:space="preserve">Người dùng xóa vĩnh viễn một message trong thư mục Trash </t>
-  </si>
-  <si>
-    <t>Người dùng xóa một message =&gt; Chuyển đến thư mục Trash =&gt; Thiết lập thuộc tính deletedBy chứa tham chiếu đến người dùng</t>
   </si>
   <si>
     <t>move</t>
@@ -473,6 +470,18 @@
     msgId: String,
     files: [String]
 }</t>
+  </si>
+  <si>
+    <t>restore</t>
+  </si>
+  <si>
+    <t>/messages/restore</t>
+  </si>
+  <si>
+    <t>Người dùng xóa một message =&gt; Chuyển đến thư mục Trash =&gt; Thêm vào danh sách deletedBy email của người dùng</t>
+  </si>
+  <si>
+    <t>Nguời dùng phục hồi một message đã bị xóa =&gt; Đưa message trở về thư mục ban đầu =&gt; Bỏ email của người dùng ra khỏi danh sách deletedBy</t>
   </si>
 </sst>
 </file>
@@ -542,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -577,6 +586,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -918,7 +933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -946,10 +961,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="132" x14ac:dyDescent="0.25">
@@ -966,10 +981,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="132" x14ac:dyDescent="0.25">
@@ -986,10 +1001,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="181.5" x14ac:dyDescent="0.25">
@@ -1006,10 +1021,10 @@
         <v>14</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="181.5" x14ac:dyDescent="0.25">
@@ -1026,10 +1041,10 @@
         <v>7</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
@@ -1046,10 +1061,10 @@
         <v>14</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
@@ -1057,39 +1072,39 @@
         <v>18</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1108,7 +1123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1136,30 +1151,30 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="231" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>70</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
@@ -1167,19 +1182,19 @@
         <v>35</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
@@ -1190,16 +1205,16 @@
         <v>31</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
@@ -1210,16 +1225,16 @@
         <v>32</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1270,10 +1285,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
@@ -1290,10 +1305,10 @@
         <v>14</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
@@ -1310,10 +1325,10 @@
         <v>19</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
@@ -1321,7 +1336,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>34</v>
@@ -1330,30 +1345,30 @@
         <v>27</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1366,8 +1381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1395,10 +1410,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="148.5" x14ac:dyDescent="0.25">
@@ -1406,7 +1421,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>21</v>
@@ -1415,10 +1430,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="165" x14ac:dyDescent="0.25">
@@ -1426,7 +1441,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
@@ -1435,10 +1450,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="148.5" x14ac:dyDescent="0.25">
@@ -1449,16 +1464,16 @@
         <v>37</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
@@ -1466,19 +1481,19 @@
         <v>25</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
@@ -1489,76 +1504,94 @@
         <v>41</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>83</v>
+      <c r="A7" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>19</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D7" s="14"/>
       <c r="E7" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>84</v>
-      </c>
       <c r="C8" s="8" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
